--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW90_wt_pct.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW90_wt_pct.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435F9E25-7C66-6A44-BE41-38268D4EEBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02824E18-9270-6D48-8B67-06BC586F1EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
   <si>
     <t>Fe</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>microstructure</t>
+  </si>
+  <si>
+    <t>FCC</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,12 +137,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -152,64 +152,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -362,57 +310,57 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -719,1492 +667,1632 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F70"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="8.83203125" style="12"/>
-    <col min="3" max="5" width="8.83203125" style="13"/>
-    <col min="6" max="6" width="8.83203125" style="14"/>
-    <col min="7" max="7" width="115" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="8.83203125" style="7"/>
+    <col min="3" max="5" width="8.83203125" style="8"/>
+    <col min="6" max="6" width="8.83203125" style="9"/>
+    <col min="7" max="7" width="14.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="15">
         <v>19.139555151816598</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="15">
         <v>55.273362917516778</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="15">
         <v>13.680387520834159</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="15">
         <v>4.138849393589342</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="16">
         <v>7.7678450162431245</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="15">
         <v>17.459778093592039</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="15">
         <v>50.508082294564794</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="15">
         <v>17.747485688224501</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="15">
         <v>5.7528265711911528</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="16">
         <v>8.5318273524275252</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="G3" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="15">
         <v>15.364356297133796</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="15">
         <v>45.021605204516689</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>22.547266595458819</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="15">
         <v>8.2342016180053896</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="16">
         <v>8.832570284885314</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="G4" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="15">
         <v>13.706723782880992</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="15">
         <v>38.515117500134387</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>27.310313742808688</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="15">
         <v>11.338770959746844</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="16">
         <v>9.1290740144290901</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="G5" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="15">
         <v>11.768714508343489</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <v>32.225284613396951</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>31.045843696029589</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="15">
         <v>15.971556792943749</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16">
         <v>8.9886003892862103</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="G6" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="15">
         <v>25.835149692526688</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="15">
         <v>52.64053815136711</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>9.0684065674341703</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="15">
         <v>2.858930696686266</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <v>9.59697489198577</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="G7" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="15">
         <v>23.456601725226264</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="15">
         <v>50.234341973321492</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>11.776178492579739</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="15">
         <v>4.0903942721104505</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <v>10.442483536762051</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20">
+      <c r="G8" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
         <v>21.272169562432968</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="15">
         <v>46.255605177538875</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="15">
         <v>15.102328511529226</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="15">
         <v>5.9211052635740327</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="16">
         <v>11.448791484924907</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="G9" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="15">
         <v>18.861414548137667</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="15">
         <v>41.203378168672316</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <v>19.261225021022774</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>8.9478588650183966</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="16">
         <v>11.726123397148843</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="G10" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="15">
         <v>16.704293348028116</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="15">
         <v>36.046957011011258</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="15">
         <v>22.578344017566735</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="15">
         <v>12.546417609752819</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="16">
         <v>12.123988013641052</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+      <c r="G11" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="15">
         <v>14.456007936236444</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="15">
         <v>29.881793863099926</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="15">
         <v>25.804481236958239</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="15">
         <v>17.937188793486815</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="16">
         <v>11.92052817021859</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+      <c r="G12" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="15">
         <v>11.796183822421471</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="15">
         <v>24.225376150469653</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="15">
         <v>28.426412559099234</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="15">
         <v>23.920179291461299</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="16">
         <v>11.631848176548345</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="G13" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="15">
         <v>33.991072270801745</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>46.210329914153782</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="15">
         <v>5.9136909591587292</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <v>2.0873857953336872</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="16">
         <v>11.797521060552056</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="G14" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="15">
         <v>31.320034571833549</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="15">
         <v>44.791670052071922</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="15">
         <v>7.9102713521482153</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="15">
         <v>2.9595641380961815</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="16">
         <v>13.018459885850135</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="G15" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="15">
         <v>28.120334829066309</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="15">
         <v>42.813888732693798</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="15">
         <v>9.8876628783825726</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="15">
         <v>4.5286319035353033</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="16">
         <v>14.649481656322022</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="G16" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="15">
         <v>25.025246508098093</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="15">
         <v>40.265485410281762</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="15">
         <v>12.671084743062879</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="15">
         <v>6.469604699286494</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="16">
         <v>15.568578639270767</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="G17" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="15">
         <v>22.117291660839417</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="15">
         <v>36.158171864158106</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="15">
         <v>16.092448947896042</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="15">
         <v>9.3662432814669607</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="16">
         <v>16.265844245639478</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+      <c r="G18" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="15">
         <v>19.478889057318636</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="15">
         <v>31.952452592116504</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="15">
         <v>18.806159977346415</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="15">
         <v>13.46924519907293</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="16">
         <v>16.293253174145523</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="G19" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="15">
         <v>16.086735515672544</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="15">
         <v>27.647199967630691</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="15">
         <v>21.53654037524106</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="15">
         <v>18.709198409769893</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="16">
         <v>16.020325731685805</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="G20" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="15">
         <v>13.961021524047354</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="15">
         <v>22.738051589694916</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="15">
         <v>23.291468808701524</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="15">
         <v>24.886714548334481</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="16">
         <v>15.122743529221715</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="G21" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="15">
         <v>10.619862592877007</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="15">
         <v>17.933827947977541</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="15">
         <v>23.152547029631521</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="15">
         <v>34.388516128297724</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="16">
         <v>13.905246301216195</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="G22" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="15">
         <v>40.307675333202845</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="15">
         <v>36.83297758256446</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="15">
         <v>5.0988624331751984</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="15">
         <v>2.2588133401963604</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="16">
         <v>15.501671310861139</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="G23" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="15">
         <v>35.933588414354048</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="15">
         <v>37.279742149023704</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="15">
         <v>6.5774665382129953</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="15">
         <v>3.1647673843483659</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="16">
         <v>17.044435514060886</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
+      <c r="G24" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="15">
         <v>32.27297843110567</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="15">
         <v>35.73802620485467</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="15">
         <v>8.4209645059475289</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="15">
         <v>4.2752932134301593</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="16">
         <v>19.292737644661955</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
+      <c r="G25" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="15">
         <v>28.906221287848872</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="15">
         <v>33.421987640453018</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="15">
         <v>10.670670276515692</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="15">
         <v>6.3735724530359334</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="16">
         <v>20.627548342146472</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+      <c r="G26" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="15">
         <v>24.736843869308746</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="15">
         <v>31.359988082892027</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="15">
         <v>13.168329831396083</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="15">
         <v>9.5318234242474542</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="16">
         <v>21.203014792155692</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
+      <c r="G27" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="15">
         <v>21.662343598254015</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="15">
         <v>27.982248912980722</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="15">
         <v>14.893387316628552</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="15">
         <v>13.429500669221712</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="16">
         <v>22.032519502915004</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
+      <c r="G28" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="15">
         <v>18.299741395944086</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="15">
         <v>24.270029803304936</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="15">
         <v>17.192463309726229</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="15">
         <v>18.855034906966495</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="16">
         <v>21.382730584058258</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
+      <c r="G29" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="15">
         <v>15.152448720787895</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="15">
         <v>20.373187673792039</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="15">
         <v>18.77509918539074</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="15">
         <v>25.556226811218853</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="16">
         <v>20.143037608810467</v>
       </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="17">
+      <c r="G30" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="15">
         <v>12.123486743325186</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="15">
         <v>16.877327943907833</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="15">
         <v>19.020277520672664</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="15">
         <v>34.573217525327259</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="16">
         <v>17.40569026676706</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
+      <c r="G31" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="15">
         <v>44.852219742433959</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="15">
         <v>29.126071139996661</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="15">
         <v>4.0183737050000685</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="15">
         <v>2.0147947039021838</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="16">
         <v>19.988540708667106</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="17">
+      <c r="G32" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="15">
         <v>39.745248279461045</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="15">
         <v>29.139356735244991</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="15">
         <v>5.3986269898735895</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="15">
         <v>3.0469866982860547</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="16">
         <v>22.669781297134328</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
+      <c r="G33" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="15">
         <v>35.349116338565665</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="15">
         <v>28.698132233325939</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="15">
         <v>6.4841709812452786</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="15">
         <v>4.4692642899358708</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="16">
         <v>24.999316156927236</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
+      <c r="G34" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="15">
         <v>30.892538338176795</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="15">
         <v>27.648671020575062</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="15">
         <v>8.4026545226950695</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="15">
         <v>6.0787067564229069</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="16">
         <v>26.977429362130177</v>
       </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="17">
+      <c r="G35" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="15">
         <v>26.621022192650422</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="15">
         <v>25.650459843509342</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="15">
         <v>10.148764807047286</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="15">
         <v>9.1223581978360144</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="16">
         <v>28.457394958956929</v>
       </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="17">
+      <c r="G36" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="15">
         <v>23.527087789577266</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="15">
         <v>23.105931735017389</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="15">
         <v>12.078795381254468</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="15">
         <v>13.027991685608267</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="16">
         <v>28.260193408542598</v>
       </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="17">
+      <c r="G37" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="15">
         <v>19.993469135553962</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="15">
         <v>20.553594594021032</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="15">
         <v>13.741236082497796</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="15">
         <v>18.65198545875306</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="16">
         <v>27.05971472917415</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="17">
+      <c r="G38" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="15">
         <v>16.326899945478704</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="15">
         <v>17.604081640802534</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="15">
         <v>14.667913263337637</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="15">
         <v>25.544250644573204</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="16">
         <v>25.85685450580792</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="17">
+      <c r="G39" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="15">
         <v>13.002230664973736</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="15">
         <v>15.070156934597048</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="15">
         <v>15.231193565353404</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="15">
         <v>34.325110616953559</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="16">
         <v>22.371308218122259</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="17">
+      <c r="G40" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="15">
         <v>47.080226781726978</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="15">
         <v>22.010021334896887</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="15">
         <v>3.3541406034139776</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="15">
         <v>1.9298522848985926</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="16">
         <v>25.625758995063581</v>
       </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="17">
+      <c r="G41" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="15">
         <v>41.702973995571043</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="15">
         <v>22.278025622095608</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="15">
         <v>4.3872187739606323</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="15">
         <v>2.9192510716763906</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="16">
         <v>28.712530536696324</v>
       </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="17">
+      <c r="G42" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
         <v>41</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="15">
         <v>37.176295728223295</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="15">
         <v>21.677054794273605</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="15">
         <v>5.061431585675666</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="15">
         <v>4.0104950937769255</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="16">
         <v>32.074722798050495</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="17">
+      <c r="G43" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
         <v>42</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="15">
         <v>31.638365640503697</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="15">
         <v>21.488303253088347</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="15">
         <v>6.6605901835728547</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="15">
         <v>6.0960634130449023</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="16">
         <v>34.116677509790186</v>
       </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="17">
+      <c r="G44" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
         <v>43</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="15">
         <v>28.411278153346846</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="15">
         <v>20.584611509401736</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="15">
         <v>8.038536332911578</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="15">
         <v>8.1951795210019469</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="16">
         <v>34.770394483337896</v>
       </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="17">
+      <c r="G45" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
         <v>44</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="15">
         <v>24.378128014426046</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="15">
         <v>18.873397067549007</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="15">
         <v>9.2908627053493653</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="15">
         <v>11.959095398778635</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="16">
         <v>35.498516813896948</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
+      <c r="G46" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
         <v>45</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="15">
         <v>20.566382163223494</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="15">
         <v>17.370003973214388</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="15">
         <v>10.656858821025603</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="15">
         <v>16.832725502810824</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="16">
         <v>34.574029539725693</v>
       </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
+      <c r="G47" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="15">
         <v>17.462897355592315</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="15">
         <v>15.375357184207852</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="15">
         <v>11.832885536579223</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="15">
         <v>23.525110866438091</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="16">
         <v>31.803749057182529</v>
       </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="17">
+      <c r="G48" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
         <v>47</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="15">
         <v>13.821762947382021</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="15">
         <v>13.29688072439569</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="15">
         <v>12.360259916188852</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="15">
         <v>31.958788698421177</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="16">
         <v>28.562307713612267</v>
       </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="17">
+      <c r="G49" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
         <v>48</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="15">
         <v>46.894448634348834</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="15">
         <v>16.488434572737336</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="15">
         <v>2.7666871146503729</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="15">
         <v>1.8951633432594552</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="16">
         <v>31.955266335004005</v>
       </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="17">
+      <c r="G50" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
         <v>49</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="15">
         <v>41.338152231481587</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="15">
         <v>16.645999668255559</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="15">
         <v>3.1444624322763466</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="15">
         <v>2.6184011185136673</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="16">
         <v>36.252984549472842</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="17">
+      <c r="G51" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
         <v>50</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="15">
         <v>36.033146591407736</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="15">
         <v>16.79592099060892</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="15">
         <v>4.0492422239756474</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="15">
         <v>3.6547044308765986</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="16">
         <v>39.466985763131113</v>
       </c>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="17">
+      <c r="G52" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
         <v>51</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="15">
         <v>31.312376826834594</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="15">
         <v>16.662275230488145</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="15">
         <v>4.937588640614651</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="15">
         <v>5.0979320134929402</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="16">
         <v>41.989827288569678</v>
       </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="17">
+      <c r="G53" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
         <v>52</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="15">
         <v>27.594012354779217</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="15">
         <v>16.048095946861974</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="15">
         <v>6.027784260795829</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="15">
         <v>7.3402621249890538</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="16">
         <v>42.989845312573912</v>
       </c>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="17">
+      <c r="G54" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
         <v>53</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="15">
         <v>24.02599254485277</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="15">
         <v>15.377326337007469</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="15">
         <v>6.9396560086907586</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="15">
         <v>10.656042176100971</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="16">
         <v>43.000982933348034</v>
       </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="17">
+      <c r="G55" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
         <v>54</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="15">
         <v>20.287518022269431</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="15">
         <v>14.302786027043149</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="15">
         <v>7.9454976867969265</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="15">
         <v>15.118957985746381</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="16">
         <v>42.345240278144111</v>
       </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="17">
+      <c r="G56" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
         <v>55</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="15">
         <v>17.855873032556261</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="15">
         <v>12.976772392812416</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="15">
         <v>9.2757202452133765</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="15">
         <v>21.436755699686017</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="16">
         <v>38.45487862973193</v>
       </c>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="17">
+      <c r="G57" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
         <v>56</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="15">
         <v>14.836353114437891</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="15">
         <v>12.000521578269524</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="15">
         <v>9.8880995465028718</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="15">
         <v>28.086461729410612</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="16">
         <v>35.188564031379094</v>
       </c>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="17">
+      <c r="G58" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
         <v>57</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="15">
         <v>38.741236552972893</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="15">
         <v>12.270540178381347</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="15">
         <v>2.5619220076768086</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="15">
         <v>2.2325950249733495</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="16">
         <v>44.193706235995613</v>
       </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="17">
+      <c r="G59" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="12">
         <v>58</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="15">
         <v>33.534706950147232</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="15">
         <v>12.308995879220754</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="15">
         <v>3.262264375448261</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="15">
         <v>3.0828391166013303</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="16">
         <v>47.81119367858242</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="17">
+      <c r="G60" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
         <v>59</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="15">
         <v>29.151714849111656</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="15">
         <v>11.983688836810643</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="15">
         <v>3.6746334126922493</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="15">
         <v>4.5051263015237879</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="16">
         <v>50.684836599861669</v>
       </c>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="17">
+      <c r="G61" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="12">
         <v>60</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="15">
         <v>25.636095293233236</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="15">
         <v>11.541579257849092</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="15">
         <v>4.4835318824656065</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="15">
         <v>6.3559034259348683</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="16">
         <v>51.982890140517192</v>
       </c>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="17">
+      <c r="G62" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="12">
         <v>61</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="15">
         <v>22.240222735043016</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="15">
         <v>11.765454926817291</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="15">
         <v>5.1435412574781934</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="15">
         <v>8.901270071694519</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="16">
         <v>51.949511008966986</v>
       </c>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="17">
+      <c r="G63" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="12">
         <v>62</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="15">
         <v>19.804744106019093</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="15">
         <v>11.352578178567398</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="15">
         <v>6.2421616540366385</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="15">
         <v>12.317282094311526</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="16">
         <v>50.283233967065357</v>
       </c>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="17">
+      <c r="G64" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="12">
         <v>63</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="15">
         <v>17.23696358760477</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="15">
         <v>10.65137549809611</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="15">
         <v>7.1686528754098173</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="15">
         <v>17.361452627670264</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="16">
         <v>47.581555411219043</v>
       </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="17">
+      <c r="G65" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="12">
         <v>64</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B66" s="15">
         <v>28.840981108097075</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="15">
         <v>9.0628573038397366</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="15">
         <v>2.2243651917188298</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="15">
         <v>2.6029468811402197</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="16">
         <v>57.268849515204131</v>
       </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="17">
+      <c r="G66" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="12">
         <v>65</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="15">
         <v>25.660115211753354</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="15">
         <v>9.0742945989024246</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="15">
         <v>2.6080353873812228</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="15">
         <v>3.6633635885701716</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="16">
         <v>58.994191213392824</v>
       </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="17">
+      <c r="G67" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="12">
         <v>66</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="15">
         <v>22.162229381685776</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="15">
         <v>8.8861955079634374</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="15">
         <v>3.2482615261833172</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="15">
         <v>5.1415321404133607</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="16">
         <v>60.5617814437541</v>
       </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="17">
+      <c r="G68" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="12">
         <v>67</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="15">
         <v>20.006181842889507</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="15">
         <v>8.7124237337137771</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="15">
         <v>3.6686760723191831</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="15">
         <v>7.000383642702765</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="16">
         <v>60.612334708374782</v>
       </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18">
+      <c r="G69" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="14" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
         <v>68</v>
       </c>
-      <c r="B70" s="20">
+      <c r="B70" s="15">
         <v>18.063339658771184</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="15">
         <v>8.8807501658846295</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="15">
         <v>4.4016886123661738</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="15">
         <v>10.36007363497499</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="16">
         <v>58.294147928003028</v>
       </c>
-      <c r="G70" s="4"/>
+      <c r="G70" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
